--- a/assets/files/excel/3416.xlsx
+++ b/assets/files/excel/3416.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Jm827s7boeymAWMj6/Du7Y59Yk2Hp2c5meYlCt/LaK/u4CxZ18vPClxp43ZQBThQrqQgoYCXgcVTT/Ymkw4m/Q==" workbookSaltValue="t0uKq59tf2Jv1QmYLgHhVw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -823,9 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1059,7 +1057,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H11:H12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1210,7 @@
         <v>127.19999999999993</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f>IFERROR(IF('Менять ли счетчик'!B20='Менять ли счетчик (решение)'!B20,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Менять ли счетчик'!B20-'Менять ли счетчик (решение)'!B20)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1232,7 +1230,7 @@
         <v>35.770440251572346</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>IFERROR(IF('Менять ли счетчик'!B23='Менять ли счетчик (решение)'!B23,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Менять ли счетчик'!B23-'Менять ли счетчик (решение)'!B23)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1296,7 +1294,7 @@
         <v>25.027502750275051</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>IFERROR(IF('Менять ли счетчик'!B31='Менять ли счетчик (решение)'!B31,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Менять ли счетчик'!B31-'Менять ли счетчик (решение)'!B31)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
